--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="11">
   <si>
     <t>G</t>
   </si>
@@ -47,6 +47,9 @@
   <si>
     <t>grass</t>
   </si>
+  <si>
+    <t>Defining Zero as down for angle</t>
+  </si>
 </sst>
 </file>
 
@@ -61,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +101,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -111,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -129,6 +144,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF19"/>
+  <dimension ref="A1:BF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P3" workbookViewId="0">
-      <selection activeCell="BA15" sqref="BA15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -539,7 +560,7 @@
       <c r="AG1" s="1">
         <v>1</v>
       </c>
-      <c r="AH1" s="5">
+      <c r="AH1" s="8">
         <v>2</v>
       </c>
       <c r="AI1" s="5">
@@ -1061,7 +1082,7 @@
       <c r="AK4" s="5">
         <v>83</v>
       </c>
-      <c r="AL4" s="5">
+      <c r="AL4" s="8">
         <v>84</v>
       </c>
       <c r="AM4" s="1">
@@ -1219,7 +1240,7 @@
       <c r="AG5" s="1">
         <v>105</v>
       </c>
-      <c r="AH5" s="5">
+      <c r="AH5" s="8">
         <v>106</v>
       </c>
       <c r="AI5" s="1">
@@ -3345,7 +3366,7 @@
       <c r="AA18" s="1">
         <v>17</v>
       </c>
-      <c r="AF18" s="2">
+      <c r="AF18" s="7">
         <v>442</v>
       </c>
       <c r="AG18" s="2">
@@ -3420,7 +3441,7 @@
       <c r="BD18" s="2">
         <v>466</v>
       </c>
-      <c r="BE18" s="2">
+      <c r="BE18" s="7">
         <v>467</v>
       </c>
       <c r="BF18" s="1">
@@ -3583,6 +3604,11 @@
       </c>
       <c r="BE19" s="1">
         <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -64,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +113,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -126,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -150,6 +156,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2963,8 +2972,8 @@
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>1</v>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -3044,7 +3053,7 @@
       <c r="AG16" s="1">
         <v>391</v>
       </c>
-      <c r="AH16" s="4">
+      <c r="AH16" s="9">
         <v>392</v>
       </c>
       <c r="AI16" s="1">
@@ -3127,8 +3136,8 @@
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>1</v>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -3208,7 +3217,7 @@
       <c r="AG17" s="1">
         <v>417</v>
       </c>
-      <c r="AH17" s="4">
+      <c r="AH17" s="9">
         <v>418</v>
       </c>
       <c r="AI17" s="1">

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="11">
   <si>
     <t>G</t>
   </si>
@@ -462,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF20"/>
+  <dimension ref="A1:BP20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AO15" sqref="AO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.28515625" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
     <col min="31" max="16384" width="4.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -554,98 +554,128 @@
       <c r="Z1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="1">
-        <v>0</v>
+      <c r="AA1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="AF1" s="1">
         <v>0</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="1">
         <v>1</v>
       </c>
-      <c r="AH1" s="8">
-        <v>2</v>
-      </c>
-      <c r="AI1" s="5">
-        <v>3</v>
-      </c>
-      <c r="AJ1" s="1">
+      <c r="AM1" s="8">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO1" s="1">
         <v>4</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AP1" s="1">
         <v>5</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AQ1" s="1">
         <v>6</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AR1" s="1">
         <v>7</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AS1" s="1">
         <v>8</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AT1" s="1">
         <v>9</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AU1" s="1">
         <v>10</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AV1" s="1">
         <v>11</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AW1" s="1">
         <v>12</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AX1" s="1">
         <v>13</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AY1" s="1">
         <v>14</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AZ1" s="1">
         <v>15</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="BA1" s="1">
         <v>16</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="BB1" s="1">
         <v>17</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="BC1" s="1">
         <v>18</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="BD1" s="1">
         <v>19</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="BE1" s="1">
         <v>20</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BF1" s="1">
         <v>21</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BG1" s="1">
         <v>22</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BH1" s="1">
         <v>23</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BI1" s="1">
         <v>24</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BJ1" s="1">
         <v>25</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BK1" s="1">
+        <v>26</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>27</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>28</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>29</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>30</v>
+      </c>
+      <c r="BP1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -724,46 +754,46 @@
       <c r="Z2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" s="1">
         <v>1</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="1">
-        <v>26</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>27</v>
-      </c>
-      <c r="AH2" s="5">
-        <v>28</v>
-      </c>
-      <c r="AI2" s="5">
-        <v>29</v>
-      </c>
-      <c r="AJ2" s="5">
-        <v>30</v>
-      </c>
-      <c r="AK2" s="5">
+      <c r="AK2" s="1">
         <v>31</v>
       </c>
       <c r="AL2" s="1">
         <v>32</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2" s="5">
         <v>33</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2" s="5">
         <v>34</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="5">
         <v>35</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AP2" s="5">
         <v>36</v>
       </c>
       <c r="AQ2" s="1">
@@ -812,10 +842,40 @@
         <v>51</v>
       </c>
       <c r="BF2" s="1">
+        <v>52</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>53</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>54</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>55</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>56</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>57</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>58</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>59</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>60</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>61</v>
+      </c>
+      <c r="BP2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -894,98 +954,128 @@
       <c r="Z3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="1">
-        <v>2</v>
+      <c r="AA3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="1">
-        <v>52</v>
-      </c>
-      <c r="AG3" s="5">
-        <v>53</v>
-      </c>
-      <c r="AH3" s="5">
-        <v>54</v>
-      </c>
-      <c r="AI3" s="5">
-        <v>55</v>
-      </c>
-      <c r="AJ3" s="5">
-        <v>56</v>
-      </c>
-      <c r="AK3" s="5">
-        <v>57</v>
+      <c r="AK3" s="1">
+        <v>62</v>
       </c>
       <c r="AL3" s="5">
-        <v>58</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>59</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>60</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>61</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>62</v>
-      </c>
-      <c r="AQ3" s="1">
         <v>63</v>
       </c>
+      <c r="AM3" s="5">
+        <v>64</v>
+      </c>
+      <c r="AN3" s="5">
+        <v>65</v>
+      </c>
+      <c r="AO3" s="5">
+        <v>66</v>
+      </c>
+      <c r="AP3" s="5">
+        <v>67</v>
+      </c>
+      <c r="AQ3" s="5">
+        <v>68</v>
+      </c>
       <c r="AR3" s="1">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AS3" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AT3" s="1">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="AU3" s="1">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AV3" s="1">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="AW3" s="1">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AX3" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AY3" s="1">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AZ3" s="1">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="BA3" s="1">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="BB3" s="1">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="BC3" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BD3" s="1">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="BE3" s="1">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="BF3" s="1">
+        <v>83</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>84</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>85</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>86</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>87</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>88</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>89</v>
+      </c>
+      <c r="BM3" s="1">
+        <v>90</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>91</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>92</v>
+      </c>
+      <c r="BP3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1064,98 +1154,128 @@
       <c r="Z4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AC4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AF4" s="1">
-        <v>78</v>
-      </c>
-      <c r="AG4" s="5">
-        <v>79</v>
-      </c>
-      <c r="AH4" s="5">
-        <v>80</v>
-      </c>
-      <c r="AI4" s="5">
-        <v>81</v>
-      </c>
-      <c r="AJ4" s="5">
-        <v>82</v>
-      </c>
-      <c r="AK4" s="5">
-        <v>83</v>
-      </c>
-      <c r="AL4" s="8">
-        <v>84</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>85</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>86</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>87</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>88</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>89</v>
+      <c r="AK4" s="1">
+        <v>93</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>94</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>95</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>96</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>97</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>98</v>
+      </c>
+      <c r="AQ4" s="8">
+        <v>99</v>
       </c>
       <c r="AR4" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS4" s="1">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AT4" s="1">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="AU4" s="1">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AV4" s="1">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AW4" s="1">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AX4" s="1">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AY4" s="1">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AZ4" s="1">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="BA4" s="1">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="BB4" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BC4" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="BD4" s="1">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="BE4" s="1">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="BF4" s="1">
+        <v>114</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>115</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>116</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>117</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>118</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>119</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>120</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>121</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>122</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>123</v>
+      </c>
+      <c r="BP4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1234,98 +1354,128 @@
       <c r="Z5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="1">
         <v>4</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AI5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AF5" s="1">
-        <v>104</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>105</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>106</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>107</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>108</v>
-      </c>
       <c r="AK5" s="1">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="AL5" s="1">
-        <v>110</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>111</v>
+        <v>125</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>126</v>
       </c>
       <c r="AN5" s="1">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="AO5" s="1">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="AP5" s="1">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="AQ5" s="1">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="AR5" s="1">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="AS5" s="1">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="AT5" s="1">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="AU5" s="1">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="AV5" s="1">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="AW5" s="1">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="AX5" s="1">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="AY5" s="1">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="AZ5" s="1">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="BA5" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="BB5" s="1">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="BC5" s="1">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="BD5" s="1">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="BE5" s="1">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="BF5" s="1">
+        <v>145</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>146</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>147</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>148</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>149</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>150</v>
+      </c>
+      <c r="BL5" s="1">
+        <v>151</v>
+      </c>
+      <c r="BM5" s="1">
+        <v>152</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>153</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>154</v>
+      </c>
+      <c r="BP5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1404,92 +1554,122 @@
       <c r="Z6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="1">
         <v>5</v>
       </c>
-      <c r="AF6" s="1">
-        <v>130</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>131</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>132</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>133</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>134</v>
-      </c>
       <c r="AK6" s="1">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="AL6" s="1">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="AM6" s="1">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="AN6" s="1">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="AO6" s="1">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="AP6" s="1">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AQ6" s="1">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="AR6" s="1">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="AS6" s="1">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="AT6" s="1">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="AU6" s="1">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="AV6" s="1">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="AW6" s="1">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="AX6" s="1">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="AY6" s="1">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="AZ6" s="1">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="BA6" s="1">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="BB6" s="1">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="BC6" s="1">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="BD6" s="1">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="BE6" s="1">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="BF6" s="1">
+        <v>176</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>177</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>178</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>179</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>180</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>181</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>182</v>
+      </c>
+      <c r="BM6" s="1">
+        <v>183</v>
+      </c>
+      <c r="BN6" s="1">
+        <v>184</v>
+      </c>
+      <c r="BO6" s="1">
+        <v>185</v>
+      </c>
+      <c r="BP6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1568,92 +1748,122 @@
       <c r="Z7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="1">
         <v>6</v>
       </c>
-      <c r="AF7" s="1">
-        <v>156</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>157</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>158</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>159</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>160</v>
-      </c>
       <c r="AK7" s="1">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="AL7" s="1">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="AM7" s="1">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="AN7" s="1">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="AO7" s="1">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AP7" s="1">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AQ7" s="1">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="AR7" s="1">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AS7" s="1">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AT7" s="1">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="AU7" s="1">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AV7" s="1">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="AW7" s="1">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="AX7" s="1">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="AY7" s="1">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AZ7" s="1">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="BA7" s="1">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="BB7" s="1">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="BC7" s="1">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="BD7" s="1">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="BE7" s="1">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="BF7" s="1">
+        <v>207</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>208</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>209</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>210</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>211</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>212</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>213</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>214</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>215</v>
+      </c>
+      <c r="BO7" s="1">
+        <v>216</v>
+      </c>
+      <c r="BP7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1699,8 +1909,8 @@
       <c r="O8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="6" t="s">
-        <v>2</v>
+      <c r="P8" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>3</v>
@@ -1732,92 +1942,122 @@
       <c r="Z8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="1">
         <v>7</v>
       </c>
-      <c r="AF8" s="1">
-        <v>182</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>183</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>184</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>185</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>186</v>
-      </c>
       <c r="AK8" s="1">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="AL8" s="1">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="AM8" s="1">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="AN8" s="1">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AO8" s="1">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="AP8" s="1">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="AQ8" s="1">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="AR8" s="1">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="AS8" s="1">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="AT8" s="1">
-        <v>196</v>
-      </c>
-      <c r="AU8" s="6">
-        <v>197</v>
+        <v>226</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>227</v>
       </c>
       <c r="AV8" s="1">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="AW8" s="1">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="AX8" s="1">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AY8" s="1">
-        <v>201</v>
-      </c>
-      <c r="AZ8" s="6">
-        <v>202</v>
+        <v>231</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>232</v>
       </c>
       <c r="BA8" s="1">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="BB8" s="1">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="BC8" s="1">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="BD8" s="1">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="BE8" s="6">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="BF8" s="1">
+        <v>238</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>239</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>240</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>241</v>
+      </c>
+      <c r="BJ8" s="6">
+        <v>242</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>243</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>244</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>245</v>
+      </c>
+      <c r="BN8" s="1">
+        <v>246</v>
+      </c>
+      <c r="BO8" s="6">
+        <v>247</v>
+      </c>
+      <c r="BP8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1863,8 +2103,8 @@
       <c r="O9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>2</v>
+      <c r="P9" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>3</v>
@@ -1875,14 +2115,14 @@
       <c r="S9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>2</v>
+      <c r="T9" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>2</v>
+      <c r="V9" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>3</v>
@@ -1890,98 +2130,128 @@
       <c r="X9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Y9" s="1" t="s">
-        <v>3</v>
+      <c r="Y9" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="1">
         <v>8</v>
       </c>
-      <c r="AF9" s="1">
-        <v>208</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>209</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>210</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>211</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>212</v>
-      </c>
       <c r="AK9" s="1">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="AL9" s="1">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="AM9" s="1">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="AN9" s="1">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="AO9" s="1">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="AP9" s="1">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="AQ9" s="1">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="AR9" s="1">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="AS9" s="1">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="AT9" s="1">
-        <v>222</v>
-      </c>
-      <c r="AU9" s="3">
-        <v>223</v>
+        <v>257</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>258</v>
       </c>
       <c r="AV9" s="1">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="AW9" s="1">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="AX9" s="1">
-        <v>226</v>
-      </c>
-      <c r="AY9" s="3">
-        <v>227</v>
-      </c>
-      <c r="AZ9" s="3">
-        <v>228</v>
-      </c>
-      <c r="BA9" s="3">
-        <v>229</v>
+        <v>261</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>262</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>263</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>264</v>
       </c>
       <c r="BB9" s="1">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="BC9" s="1">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="BD9" s="1">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="BE9" s="3">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="BF9" s="1">
+        <v>269</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>270</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>271</v>
+      </c>
+      <c r="BI9" s="3">
+        <v>272</v>
+      </c>
+      <c r="BJ9" s="3">
+        <v>273</v>
+      </c>
+      <c r="BK9" s="3">
+        <v>274</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>275</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>276</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>277</v>
+      </c>
+      <c r="BO9" s="3">
+        <v>278</v>
+      </c>
+      <c r="BP9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2027,8 +2297,8 @@
       <c r="O10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>2</v>
+      <c r="P10" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>3</v>
@@ -2036,116 +2306,146 @@
       <c r="R10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>2</v>
+      <c r="S10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>3</v>
+      <c r="V10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="1">
         <v>9</v>
       </c>
-      <c r="AF10" s="1">
-        <v>234</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>235</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>236</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>237</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>238</v>
-      </c>
       <c r="AK10" s="1">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="AL10" s="1">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="AM10" s="1">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="AN10" s="1">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="AO10" s="1">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="AP10" s="1">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="AQ10" s="1">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="AR10" s="1">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="AS10" s="1">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="AT10" s="1">
-        <v>248</v>
-      </c>
-      <c r="AU10" s="3">
-        <v>249</v>
+        <v>288</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>289</v>
       </c>
       <c r="AV10" s="1">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="AW10" s="1">
-        <v>251</v>
-      </c>
-      <c r="AX10" s="3">
-        <v>252</v>
-      </c>
-      <c r="AY10" s="3">
-        <v>253</v>
-      </c>
-      <c r="AZ10" s="3">
-        <v>254</v>
-      </c>
-      <c r="BA10" s="3">
-        <v>255</v>
-      </c>
-      <c r="BB10" s="3">
-        <v>256</v>
+        <v>291</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>292</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>293</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>294</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>295</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>296</v>
       </c>
       <c r="BC10" s="1">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="BD10" s="1">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="BE10" s="3">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="BF10" s="1">
+        <v>300</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>301</v>
+      </c>
+      <c r="BH10" s="3">
+        <v>302</v>
+      </c>
+      <c r="BI10" s="3">
+        <v>303</v>
+      </c>
+      <c r="BJ10" s="3">
+        <v>304</v>
+      </c>
+      <c r="BK10" s="3">
+        <v>305</v>
+      </c>
+      <c r="BL10" s="3">
+        <v>306</v>
+      </c>
+      <c r="BM10" s="1">
+        <v>307</v>
+      </c>
+      <c r="BN10" s="1">
+        <v>308</v>
+      </c>
+      <c r="BO10" s="3">
+        <v>309</v>
+      </c>
+      <c r="BP10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2191,125 +2491,155 @@
       <c r="O11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>2</v>
+      <c r="P11" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>2</v>
+      <c r="R11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="V11" s="3" t="s">
-        <v>2</v>
+      <c r="V11" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="X11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>3</v>
+      <c r="X11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AA11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="1">
         <v>10</v>
       </c>
-      <c r="AF11" s="1">
-        <v>260</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>261</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>262</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>263</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>264</v>
-      </c>
       <c r="AK11" s="1">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="AL11" s="1">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="AM11" s="1">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="AN11" s="1">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="AO11" s="1">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="AP11" s="1">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="AQ11" s="1">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="AR11" s="1">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="AS11" s="1">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="AT11" s="1">
-        <v>274</v>
-      </c>
-      <c r="AU11" s="3">
-        <v>275</v>
+        <v>319</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>320</v>
       </c>
       <c r="AV11" s="1">
-        <v>276</v>
-      </c>
-      <c r="AW11" s="3">
-        <v>277</v>
-      </c>
-      <c r="AX11" s="3">
-        <v>278</v>
-      </c>
-      <c r="AY11" s="3">
-        <v>279</v>
-      </c>
-      <c r="AZ11" s="3">
-        <v>280</v>
-      </c>
-      <c r="BA11" s="3">
-        <v>281</v>
-      </c>
-      <c r="BB11" s="3">
-        <v>282</v>
-      </c>
-      <c r="BC11" s="6">
-        <v>283</v>
+        <v>321</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>322</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>323</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>324</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>325</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>326</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>327</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>328</v>
       </c>
       <c r="BD11" s="1">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="BE11" s="3">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="BF11" s="1">
+        <v>331</v>
+      </c>
+      <c r="BG11" s="3">
+        <v>332</v>
+      </c>
+      <c r="BH11" s="3">
+        <v>333</v>
+      </c>
+      <c r="BI11" s="3">
+        <v>334</v>
+      </c>
+      <c r="BJ11" s="3">
+        <v>335</v>
+      </c>
+      <c r="BK11" s="3">
+        <v>336</v>
+      </c>
+      <c r="BL11" s="3">
+        <v>337</v>
+      </c>
+      <c r="BM11" s="6">
+        <v>338</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>339</v>
+      </c>
+      <c r="BO11" s="3">
+        <v>340</v>
+      </c>
+      <c r="BP11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2355,20 +2685,20 @@
       <c r="O12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>2</v>
+      <c r="P12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>2</v>
@@ -2388,92 +2718,122 @@
       <c r="Z12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AA12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="1">
         <v>11</v>
       </c>
-      <c r="AF12" s="1">
-        <v>286</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>287</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>288</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>289</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>290</v>
-      </c>
       <c r="AK12" s="1">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="AL12" s="1">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="AM12" s="1">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="AN12" s="1">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="AO12" s="1">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="AP12" s="1">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="AQ12" s="1">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="AR12" s="1">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="AS12" s="1">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="AT12" s="1">
-        <v>300</v>
-      </c>
-      <c r="AU12" s="3">
-        <v>301</v>
-      </c>
-      <c r="AV12" s="3">
-        <v>302</v>
-      </c>
-      <c r="AW12" s="3">
-        <v>303</v>
-      </c>
-      <c r="AX12" s="3">
-        <v>304</v>
-      </c>
-      <c r="AY12" s="3">
-        <v>305</v>
-      </c>
-      <c r="AZ12" s="3">
-        <v>306</v>
-      </c>
-      <c r="BA12" s="3">
-        <v>307</v>
-      </c>
-      <c r="BB12" s="3">
-        <v>308</v>
-      </c>
-      <c r="BC12" s="3">
-        <v>309</v>
-      </c>
-      <c r="BD12" s="3">
-        <v>310</v>
+        <v>350</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>351</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>352</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>353</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>354</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>355</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>356</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>357</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>358</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>359</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>360</v>
       </c>
       <c r="BE12" s="3">
-        <v>311</v>
-      </c>
-      <c r="BF12" s="1">
+        <v>361</v>
+      </c>
+      <c r="BF12" s="3">
+        <v>362</v>
+      </c>
+      <c r="BG12" s="3">
+        <v>363</v>
+      </c>
+      <c r="BH12" s="3">
+        <v>364</v>
+      </c>
+      <c r="BI12" s="3">
+        <v>365</v>
+      </c>
+      <c r="BJ12" s="3">
+        <v>366</v>
+      </c>
+      <c r="BK12" s="3">
+        <v>367</v>
+      </c>
+      <c r="BL12" s="3">
+        <v>368</v>
+      </c>
+      <c r="BM12" s="3">
+        <v>369</v>
+      </c>
+      <c r="BN12" s="3">
+        <v>370</v>
+      </c>
+      <c r="BO12" s="3">
+        <v>371</v>
+      </c>
+      <c r="BP12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2519,20 +2879,20 @@
       <c r="O13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>2</v>
+      <c r="P13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>2</v>
@@ -2552,92 +2912,122 @@
       <c r="Z13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="1">
         <v>12</v>
       </c>
-      <c r="AF13" s="1">
-        <v>312</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>313</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>314</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>315</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>316</v>
-      </c>
       <c r="AK13" s="1">
-        <v>317</v>
+        <v>372</v>
       </c>
       <c r="AL13" s="1">
-        <v>318</v>
+        <v>373</v>
       </c>
       <c r="AM13" s="1">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="AN13" s="1">
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="AO13" s="1">
-        <v>321</v>
+        <v>376</v>
       </c>
       <c r="AP13" s="1">
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="AQ13" s="1">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="AR13" s="1">
-        <v>324</v>
+        <v>379</v>
       </c>
       <c r="AS13" s="1">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="AT13" s="1">
-        <v>326</v>
-      </c>
-      <c r="AU13" s="3">
-        <v>327</v>
-      </c>
-      <c r="AV13" s="3">
-        <v>328</v>
-      </c>
-      <c r="AW13" s="3">
-        <v>329</v>
-      </c>
-      <c r="AX13" s="3">
-        <v>330</v>
-      </c>
-      <c r="AY13" s="3">
-        <v>331</v>
-      </c>
-      <c r="AZ13" s="3">
-        <v>332</v>
-      </c>
-      <c r="BA13" s="3">
-        <v>333</v>
-      </c>
-      <c r="BB13" s="3">
-        <v>334</v>
-      </c>
-      <c r="BC13" s="3">
-        <v>335</v>
-      </c>
-      <c r="BD13" s="3">
-        <v>336</v>
+        <v>381</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>382</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>383</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>384</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>385</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>386</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>387</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>388</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>389</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>390</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>391</v>
       </c>
       <c r="BE13" s="3">
-        <v>337</v>
-      </c>
-      <c r="BF13" s="1">
+        <v>392</v>
+      </c>
+      <c r="BF13" s="3">
+        <v>393</v>
+      </c>
+      <c r="BG13" s="3">
+        <v>394</v>
+      </c>
+      <c r="BH13" s="3">
+        <v>395</v>
+      </c>
+      <c r="BI13" s="3">
+        <v>396</v>
+      </c>
+      <c r="BJ13" s="3">
+        <v>397</v>
+      </c>
+      <c r="BK13" s="3">
+        <v>398</v>
+      </c>
+      <c r="BL13" s="3">
+        <v>399</v>
+      </c>
+      <c r="BM13" s="3">
+        <v>400</v>
+      </c>
+      <c r="BN13" s="3">
+        <v>401</v>
+      </c>
+      <c r="BO13" s="3">
+        <v>402</v>
+      </c>
+      <c r="BP13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2683,20 +3073,20 @@
       <c r="O14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>2</v>
+      <c r="P14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>2</v>
@@ -2707,7 +3097,7 @@
       <c r="W14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="6" t="s">
         <v>2</v>
       </c>
       <c r="Y14" s="3" t="s">
@@ -2716,584 +3106,704 @@
       <c r="Z14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="1">
         <v>13</v>
       </c>
-      <c r="AF14" s="1">
-        <v>338</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>339</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>340</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>341</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>342</v>
-      </c>
       <c r="AK14" s="1">
-        <v>343</v>
+        <v>403</v>
       </c>
       <c r="AL14" s="1">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="AM14" s="1">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="AN14" s="1">
-        <v>346</v>
+        <v>406</v>
       </c>
       <c r="AO14" s="1">
-        <v>347</v>
+        <v>407</v>
       </c>
       <c r="AP14" s="1">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="AQ14" s="1">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="AR14" s="1">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="AS14" s="1">
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="AT14" s="1">
-        <v>352</v>
-      </c>
-      <c r="AU14" s="3">
-        <v>353</v>
-      </c>
-      <c r="AV14" s="3">
-        <v>354</v>
-      </c>
-      <c r="AW14" s="3">
-        <v>355</v>
-      </c>
-      <c r="AX14" s="6">
+        <v>412</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>413</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>414</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>415</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>416</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>417</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>418</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>419</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>420</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>421</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>422</v>
+      </c>
+      <c r="BE14" s="3">
+        <v>423</v>
+      </c>
+      <c r="BF14" s="3">
+        <v>424</v>
+      </c>
+      <c r="BG14" s="3">
+        <v>425</v>
+      </c>
+      <c r="BH14" s="6">
         <v>356</v>
       </c>
-      <c r="AY14" s="3">
-        <v>357</v>
-      </c>
-      <c r="AZ14" s="3">
-        <v>358</v>
-      </c>
-      <c r="BA14" s="3">
-        <v>359</v>
-      </c>
-      <c r="BB14" s="3">
-        <v>360</v>
-      </c>
-      <c r="BC14" s="3">
-        <v>361</v>
-      </c>
-      <c r="BD14" s="3">
-        <v>362</v>
-      </c>
-      <c r="BE14" s="3">
-        <v>363</v>
-      </c>
-      <c r="BF14" s="1">
+      <c r="BI14" s="3">
+        <v>427</v>
+      </c>
+      <c r="BJ14" s="3">
+        <v>428</v>
+      </c>
+      <c r="BK14" s="3">
+        <v>429</v>
+      </c>
+      <c r="BL14" s="3">
+        <v>430</v>
+      </c>
+      <c r="BM14" s="3">
+        <v>431</v>
+      </c>
+      <c r="BN14" s="3">
+        <v>432</v>
+      </c>
+      <c r="BO14" s="3">
+        <v>433</v>
+      </c>
+      <c r="BP14" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>14</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>434</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>435</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>436</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>437</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>438</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>439</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>440</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>441</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>442</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>443</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>444</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>445</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>446</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>447</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>448</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>449</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>450</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>451</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>452</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>453</v>
+      </c>
+      <c r="BE15" s="3">
+        <v>454</v>
+      </c>
+      <c r="BF15" s="3">
+        <v>455</v>
+      </c>
+      <c r="BG15" s="3">
+        <v>456</v>
+      </c>
+      <c r="BH15" s="3">
+        <v>457</v>
+      </c>
+      <c r="BI15" s="3">
+        <v>458</v>
+      </c>
+      <c r="BJ15" s="3">
+        <v>459</v>
+      </c>
+      <c r="BK15" s="3">
+        <v>460</v>
+      </c>
+      <c r="BL15" s="3">
+        <v>461</v>
+      </c>
+      <c r="BM15" s="3">
+        <v>462</v>
+      </c>
+      <c r="BN15" s="3">
+        <v>463</v>
+      </c>
+      <c r="BO15" s="3">
+        <v>464</v>
+      </c>
+      <c r="BP15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>15</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>465</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>466</v>
+      </c>
+      <c r="AM16" s="9">
+        <v>392</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>468</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>469</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>470</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>471</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>472</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>473</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>474</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>475</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>476</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>477</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>478</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>479</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>480</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>481</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>482</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>483</v>
+      </c>
+      <c r="BD16" s="1">
+        <v>484</v>
+      </c>
+      <c r="BE16" s="3">
+        <v>485</v>
+      </c>
+      <c r="BF16" s="3">
+        <v>486</v>
+      </c>
+      <c r="BG16" s="3">
+        <v>487</v>
+      </c>
+      <c r="BH16" s="3">
+        <v>488</v>
+      </c>
+      <c r="BI16" s="3">
+        <v>489</v>
+      </c>
+      <c r="BJ16" s="3">
+        <v>490</v>
+      </c>
+      <c r="BK16" s="3">
+        <v>491</v>
+      </c>
+      <c r="BL16" s="3">
+        <v>492</v>
+      </c>
+      <c r="BM16" s="3">
+        <v>493</v>
+      </c>
+      <c r="BN16" s="3">
+        <v>494</v>
+      </c>
+      <c r="BO16" s="3">
+        <v>495</v>
+      </c>
+      <c r="BP16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>14</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>364</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>365</v>
-      </c>
-      <c r="AH15" s="4">
-        <v>366</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>367</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>368</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>369</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>370</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>371</v>
-      </c>
-      <c r="AN15" s="1">
-        <v>372</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>373</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>374</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>375</v>
-      </c>
-      <c r="AR15" s="1">
-        <v>376</v>
-      </c>
-      <c r="AS15" s="1">
-        <v>377</v>
-      </c>
-      <c r="AT15" s="1">
-        <v>378</v>
-      </c>
-      <c r="AU15" s="3">
-        <v>379</v>
-      </c>
-      <c r="AV15" s="3">
-        <v>380</v>
-      </c>
-      <c r="AW15" s="3">
-        <v>381</v>
-      </c>
-      <c r="AX15" s="3">
-        <v>382</v>
-      </c>
-      <c r="AY15" s="3">
-        <v>383</v>
-      </c>
-      <c r="AZ15" s="3">
-        <v>384</v>
-      </c>
-      <c r="BA15" s="3">
-        <v>385</v>
-      </c>
-      <c r="BB15" s="3">
-        <v>386</v>
-      </c>
-      <c r="BC15" s="3">
-        <v>387</v>
-      </c>
-      <c r="BD15" s="3">
-        <v>388</v>
-      </c>
-      <c r="BE15" s="3">
-        <v>389</v>
-      </c>
-      <c r="BF15" s="1">
-        <v>14</v>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>16</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>496</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>497</v>
+      </c>
+      <c r="AM17" s="4">
+        <v>498</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>499</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>500</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>501</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>502</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>503</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>504</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>505</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>506</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>507</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>508</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>509</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>510</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>511</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>512</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>513</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>514</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>515</v>
+      </c>
+      <c r="BE17" s="6">
+        <v>516</v>
+      </c>
+      <c r="BF17" s="3">
+        <v>517</v>
+      </c>
+      <c r="BG17" s="3">
+        <v>518</v>
+      </c>
+      <c r="BH17" s="3">
+        <v>519</v>
+      </c>
+      <c r="BI17" s="3">
+        <v>520</v>
+      </c>
+      <c r="BJ17" s="3">
+        <v>521</v>
+      </c>
+      <c r="BK17" s="3">
+        <v>522</v>
+      </c>
+      <c r="BL17" s="3">
+        <v>523</v>
+      </c>
+      <c r="BM17" s="3">
+        <v>524</v>
+      </c>
+      <c r="BN17" s="3">
+        <v>525</v>
+      </c>
+      <c r="BO17" s="6">
+        <v>526</v>
+      </c>
+      <c r="BP17" s="1">
+        <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>15</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>390</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>391</v>
-      </c>
-      <c r="AH16" s="9">
-        <v>392</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>393</v>
-      </c>
-      <c r="AJ16" s="1">
-        <v>394</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>395</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>396</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>397</v>
-      </c>
-      <c r="AN16" s="1">
-        <v>398</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>399</v>
-      </c>
-      <c r="AP16" s="1">
-        <v>400</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>401</v>
-      </c>
-      <c r="AR16" s="1">
-        <v>402</v>
-      </c>
-      <c r="AS16" s="1">
-        <v>403</v>
-      </c>
-      <c r="AT16" s="1">
-        <v>404</v>
-      </c>
-      <c r="AU16" s="3">
-        <v>405</v>
-      </c>
-      <c r="AV16" s="3">
-        <v>406</v>
-      </c>
-      <c r="AW16" s="3">
-        <v>407</v>
-      </c>
-      <c r="AX16" s="3">
-        <v>408</v>
-      </c>
-      <c r="AY16" s="3">
-        <v>409</v>
-      </c>
-      <c r="AZ16" s="3">
-        <v>410</v>
-      </c>
-      <c r="BA16" s="3">
-        <v>411</v>
-      </c>
-      <c r="BB16" s="3">
-        <v>412</v>
-      </c>
-      <c r="BC16" s="3">
-        <v>413</v>
-      </c>
-      <c r="BD16" s="3">
-        <v>414</v>
-      </c>
-      <c r="BE16" s="3">
-        <v>415</v>
-      </c>
-      <c r="BF16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>16</v>
-      </c>
-      <c r="AF17" s="1">
-        <v>416</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>417</v>
-      </c>
-      <c r="AH17" s="9">
-        <v>418</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>419</v>
-      </c>
-      <c r="AJ17" s="1">
-        <v>420</v>
-      </c>
-      <c r="AK17" s="1">
-        <v>421</v>
-      </c>
-      <c r="AL17" s="1">
-        <v>422</v>
-      </c>
-      <c r="AM17" s="1">
-        <v>423</v>
-      </c>
-      <c r="AN17" s="1">
-        <v>424</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>425</v>
-      </c>
-      <c r="AP17" s="1">
-        <v>426</v>
-      </c>
-      <c r="AQ17" s="1">
-        <v>427</v>
-      </c>
-      <c r="AR17" s="1">
-        <v>428</v>
-      </c>
-      <c r="AS17" s="1">
-        <v>429</v>
-      </c>
-      <c r="AT17" s="1">
-        <v>430</v>
-      </c>
-      <c r="AU17" s="6">
-        <v>431</v>
-      </c>
-      <c r="AV17" s="3">
-        <v>432</v>
-      </c>
-      <c r="AW17" s="3">
-        <v>433</v>
-      </c>
-      <c r="AX17" s="3">
-        <v>434</v>
-      </c>
-      <c r="AY17" s="3">
-        <v>435</v>
-      </c>
-      <c r="AZ17" s="3">
-        <v>436</v>
-      </c>
-      <c r="BA17" s="3">
-        <v>437</v>
-      </c>
-      <c r="BB17" s="3">
-        <v>438</v>
-      </c>
-      <c r="BC17" s="3">
-        <v>439</v>
-      </c>
-      <c r="BD17" s="3">
-        <v>440</v>
-      </c>
-      <c r="BE17" s="6">
-        <v>441</v>
-      </c>
-      <c r="BF17" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -3372,92 +3882,122 @@
       <c r="Z18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AA18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
         <v>17</v>
       </c>
-      <c r="AF18" s="7">
-        <v>442</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>443</v>
-      </c>
-      <c r="AH18" s="2">
-        <v>444</v>
-      </c>
-      <c r="AI18" s="2">
-        <v>445</v>
-      </c>
-      <c r="AJ18" s="2">
-        <v>446</v>
-      </c>
-      <c r="AK18" s="2">
-        <v>447</v>
+      <c r="AK18" s="7">
+        <v>527</v>
       </c>
       <c r="AL18" s="2">
-        <v>448</v>
+        <v>528</v>
       </c>
       <c r="AM18" s="2">
-        <v>449</v>
+        <v>529</v>
       </c>
       <c r="AN18" s="2">
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="AO18" s="2">
-        <v>451</v>
+        <v>531</v>
       </c>
       <c r="AP18" s="2">
-        <v>452</v>
+        <v>532</v>
       </c>
       <c r="AQ18" s="2">
-        <v>453</v>
+        <v>533</v>
       </c>
       <c r="AR18" s="2">
-        <v>454</v>
+        <v>534</v>
       </c>
       <c r="AS18" s="2">
-        <v>455</v>
+        <v>535</v>
       </c>
       <c r="AT18" s="2">
-        <v>456</v>
+        <v>536</v>
       </c>
       <c r="AU18" s="2">
-        <v>457</v>
+        <v>537</v>
       </c>
       <c r="AV18" s="2">
-        <v>458</v>
+        <v>538</v>
       </c>
       <c r="AW18" s="2">
-        <v>459</v>
+        <v>539</v>
       </c>
       <c r="AX18" s="2">
-        <v>460</v>
+        <v>540</v>
       </c>
       <c r="AY18" s="2">
-        <v>461</v>
+        <v>541</v>
       </c>
       <c r="AZ18" s="2">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="BA18" s="2">
-        <v>463</v>
+        <v>543</v>
       </c>
       <c r="BB18" s="2">
-        <v>464</v>
+        <v>544</v>
       </c>
       <c r="BC18" s="2">
-        <v>465</v>
+        <v>545</v>
       </c>
       <c r="BD18" s="2">
-        <v>466</v>
-      </c>
-      <c r="BE18" s="7">
-        <v>467</v>
-      </c>
-      <c r="BF18" s="1">
+        <v>546</v>
+      </c>
+      <c r="BE18" s="2">
+        <v>547</v>
+      </c>
+      <c r="BF18" s="2">
+        <v>548</v>
+      </c>
+      <c r="BG18" s="2">
+        <v>549</v>
+      </c>
+      <c r="BH18" s="2">
+        <v>550</v>
+      </c>
+      <c r="BI18" s="2">
+        <v>551</v>
+      </c>
+      <c r="BJ18" s="2">
+        <v>552</v>
+      </c>
+      <c r="BK18" s="2">
+        <v>553</v>
+      </c>
+      <c r="BL18" s="2">
+        <v>554</v>
+      </c>
+      <c r="BM18" s="2">
+        <v>555</v>
+      </c>
+      <c r="BN18" s="2">
+        <v>556</v>
+      </c>
+      <c r="BO18" s="7">
+        <v>557</v>
+      </c>
+      <c r="BP18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -3536,86 +4076,116 @@
       <c r="Z19" s="1">
         <v>25</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AA19" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>30</v>
+      </c>
+      <c r="AK19" s="1">
         <v>0</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AL19" s="1">
         <v>1</v>
       </c>
-      <c r="AH19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>3</v>
-      </c>
-      <c r="AJ19" s="1">
+      <c r="AM19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO19" s="1">
         <v>4</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AP19" s="1">
         <v>5</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AQ19" s="1">
         <v>6</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AR19" s="1">
         <v>7</v>
       </c>
-      <c r="AN19" s="1">
+      <c r="AS19" s="1">
         <v>8</v>
       </c>
-      <c r="AO19" s="1">
+      <c r="AT19" s="1">
         <v>9</v>
       </c>
-      <c r="AP19" s="1">
+      <c r="AU19" s="1">
         <v>10</v>
       </c>
-      <c r="AQ19" s="1">
+      <c r="AV19" s="1">
         <v>11</v>
       </c>
-      <c r="AR19" s="1">
+      <c r="AW19" s="1">
         <v>12</v>
       </c>
-      <c r="AS19" s="1">
+      <c r="AX19" s="1">
         <v>13</v>
       </c>
-      <c r="AT19" s="1">
+      <c r="AY19" s="1">
         <v>14</v>
       </c>
-      <c r="AU19" s="1">
+      <c r="AZ19" s="1">
         <v>15</v>
       </c>
-      <c r="AV19" s="1">
+      <c r="BA19" s="1">
         <v>16</v>
       </c>
-      <c r="AW19" s="1">
+      <c r="BB19" s="1">
         <v>17</v>
       </c>
-      <c r="AX19" s="1">
+      <c r="BC19" s="1">
         <v>18</v>
       </c>
-      <c r="AY19" s="1">
+      <c r="BD19" s="1">
         <v>19</v>
       </c>
-      <c r="AZ19" s="1">
+      <c r="BE19" s="1">
         <v>20</v>
       </c>
-      <c r="BA19" s="1">
+      <c r="BF19" s="1">
         <v>21</v>
       </c>
-      <c r="BB19" s="1">
+      <c r="BG19" s="1">
         <v>22</v>
       </c>
-      <c r="BC19" s="1">
+      <c r="BH19" s="1">
         <v>23</v>
       </c>
-      <c r="BD19" s="1">
+      <c r="BI19" s="1">
         <v>24</v>
       </c>
-      <c r="BE19" s="1">
+      <c r="BJ19" s="1">
         <v>25</v>
       </c>
+      <c r="BK19" s="1">
+        <v>26</v>
+      </c>
+      <c r="BL19" s="1">
+        <v>27</v>
+      </c>
+      <c r="BM19" s="1">
+        <v>28</v>
+      </c>
+      <c r="BN19" s="1">
+        <v>29</v>
+      </c>
+      <c r="BO19" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="20" spans="1:58" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:68" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
